--- a/Code/Results/Cases/Case_0_196/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_196/res_line/loading_percent.xlsx
@@ -424,22 +424,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>7.31859140992018</v>
+        <v>4.919465525594682</v>
       </c>
       <c r="D2">
-        <v>2.448238721165607</v>
+        <v>4.409400734803915</v>
       </c>
       <c r="E2">
-        <v>30.29020327041161</v>
+        <v>16.4951395720656</v>
       </c>
       <c r="F2">
-        <v>27.63206381771208</v>
+        <v>26.6947121690564</v>
       </c>
       <c r="G2">
-        <v>40.8516204080014</v>
+        <v>34.01207126782955</v>
       </c>
       <c r="H2">
-        <v>11.34490477297751</v>
+        <v>14.77919364037958</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>24.53740622377105</v>
+        <v>15.41918535586897</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>10.61928806752271</v>
+        <v>16.57566166230366</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,22 +471,22 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>6.795693050082561</v>
+        <v>4.749625503947096</v>
       </c>
       <c r="D3">
-        <v>2.564037071411083</v>
+        <v>4.435624843057894</v>
       </c>
       <c r="E3">
-        <v>28.0137025441397</v>
+        <v>15.55565519777343</v>
       </c>
       <c r="F3">
-        <v>26.10439670440634</v>
+        <v>26.45266724202762</v>
       </c>
       <c r="G3">
-        <v>38.29611541253076</v>
+        <v>33.46534592053941</v>
       </c>
       <c r="H3">
-        <v>10.98415313549273</v>
+        <v>14.78013410565199</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>22.85103300423948</v>
+        <v>14.79378306681102</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>10.89981842986054</v>
+        <v>16.64864034559091</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,22 +518,22 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>6.458599745163447</v>
+        <v>4.643851622340542</v>
       </c>
       <c r="D4">
-        <v>2.634858359024005</v>
+        <v>4.452294301199195</v>
       </c>
       <c r="E4">
-        <v>26.55890043958851</v>
+        <v>14.95454649616157</v>
       </c>
       <c r="F4">
-        <v>25.1652297664953</v>
+        <v>26.31402890675283</v>
       </c>
       <c r="G4">
-        <v>36.71271334674812</v>
+        <v>33.14204103004788</v>
       </c>
       <c r="H4">
-        <v>10.77379165212445</v>
+        <v>14.78521115709388</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>21.76250733968898</v>
+        <v>14.39942447985864</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>11.07380755124788</v>
+        <v>16.69539907217806</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,22 +565,22 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>6.317127719862478</v>
+        <v>4.600449782367975</v>
       </c>
       <c r="D5">
-        <v>2.663703386037183</v>
+        <v>4.459230989532921</v>
       </c>
       <c r="E5">
-        <v>25.9511494423724</v>
+        <v>14.70375955856703</v>
       </c>
       <c r="F5">
-        <v>24.78250462256448</v>
+        <v>26.26009492591661</v>
       </c>
       <c r="G5">
-        <v>36.06424139851554</v>
+        <v>33.01359274275764</v>
       </c>
       <c r="H5">
-        <v>10.69082724791483</v>
+        <v>14.78840669533324</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>21.30537301785321</v>
+        <v>14.23637088457637</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>11.14522631548927</v>
+        <v>16.71494594496888</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,22 +612,22 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6.29338650993904</v>
+        <v>4.593227297196554</v>
       </c>
       <c r="D6">
-        <v>2.668493666527184</v>
+        <v>4.460391532135322</v>
       </c>
       <c r="E6">
-        <v>25.84931687038029</v>
+        <v>14.6617734021746</v>
       </c>
       <c r="F6">
-        <v>24.71896337148394</v>
+        <v>26.2512954107495</v>
       </c>
       <c r="G6">
-        <v>35.95638328109806</v>
+        <v>32.99246863778009</v>
       </c>
       <c r="H6">
-        <v>10.67721652873893</v>
+        <v>14.78900519815208</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>21.22864222549684</v>
+        <v>14.20916210841163</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>11.15711873241253</v>
+        <v>16.71822148411764</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>6.456708512497546</v>
+        <v>4.643267391014173</v>
       </c>
       <c r="D7">
-        <v>2.635247366030772</v>
+        <v>4.452387268532384</v>
       </c>
       <c r="E7">
-        <v>26.55076516963231</v>
+        <v>14.95118750546409</v>
       </c>
       <c r="F7">
-        <v>25.16006777419983</v>
+        <v>26.31329109450434</v>
       </c>
       <c r="G7">
-        <v>36.70398023533632</v>
+        <v>33.14029512665609</v>
       </c>
       <c r="H7">
-        <v>10.77266164632535</v>
+        <v>14.78524969885075</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>21.75639738794696</v>
+        <v>14.39723463514613</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>11.07476853810917</v>
+        <v>16.6956606920917</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>7.141578191239606</v>
+        <v>4.861258513574546</v>
       </c>
       <c r="D8">
-        <v>2.488258912824946</v>
+        <v>4.418325566711061</v>
       </c>
       <c r="E8">
-        <v>29.51674024511963</v>
+        <v>16.17638735136423</v>
       </c>
       <c r="F8">
-        <v>27.10570753510752</v>
+        <v>26.60921793352317</v>
       </c>
       <c r="G8">
-        <v>39.97361629818663</v>
+        <v>33.82110406046517</v>
       </c>
       <c r="H8">
-        <v>11.21817890875682</v>
+        <v>14.77858133007537</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>23.9668340325743</v>
+        <v>15.20584113224446</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>10.71570289217891</v>
+        <v>16.60042135100358</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,22 +753,22 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>8.360962534732689</v>
+        <v>5.273835501643875</v>
       </c>
       <c r="D9">
-        <v>2.194978423807346</v>
+        <v>4.355989912697232</v>
       </c>
       <c r="E9">
-        <v>34.90961568133543</v>
+        <v>18.46581625186574</v>
       </c>
       <c r="F9">
-        <v>30.90504817901923</v>
+        <v>27.26606377911448</v>
       </c>
       <c r="G9">
-        <v>46.28148214664009</v>
+        <v>35.24586130336765</v>
       </c>
       <c r="H9">
-        <v>12.1825127704502</v>
+        <v>14.80138925311246</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>27.89063057182559</v>
+        <v>16.6995262267186</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>10.02143773961419</v>
+        <v>16.42902964644935</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,22 +800,22 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>9.186957681401941</v>
+        <v>5.564202007861616</v>
       </c>
       <c r="D10">
-        <v>1.971890467815563</v>
+        <v>4.312845476745442</v>
       </c>
       <c r="E10">
-        <v>38.66061593475523</v>
+        <v>20.12041306727535</v>
       </c>
       <c r="F10">
-        <v>33.87800745010444</v>
+        <v>27.79138892426623</v>
       </c>
       <c r="G10">
-        <v>50.97676123624929</v>
+        <v>36.33544699304316</v>
       </c>
       <c r="H10">
-        <v>12.95065743519611</v>
+        <v>14.84021964656524</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>30.53945917385949</v>
+        <v>17.72961336871365</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>9.511105145046923</v>
+        <v>16.31234360073391</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,22 +847,22 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>9.548950295931203</v>
+        <v>5.692876379534704</v>
       </c>
       <c r="D11">
-        <v>1.867526347943204</v>
+        <v>4.293780069879173</v>
       </c>
       <c r="E11">
-        <v>40.3340186496486</v>
+        <v>20.83139714743529</v>
       </c>
       <c r="F11">
-        <v>35.27098586580858</v>
+        <v>28.03872663214829</v>
       </c>
       <c r="G11">
-        <v>53.09768389016069</v>
+        <v>36.83787202225562</v>
       </c>
       <c r="H11">
-        <v>13.31454117037974</v>
+        <v>14.86270175730886</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>31.69802566767803</v>
+        <v>18.18171910370141</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>9.277239851739278</v>
+        <v>16.26123641431803</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,22 +894,22 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>9.684184014824904</v>
+        <v>5.741064629336696</v>
       </c>
       <c r="D12">
-        <v>1.827470262901276</v>
+        <v>4.286640105443743</v>
       </c>
       <c r="E12">
-        <v>40.96426612589314</v>
+        <v>21.09467149190681</v>
       </c>
       <c r="F12">
-        <v>35.79675832409228</v>
+        <v>28.13350722493543</v>
       </c>
       <c r="G12">
-        <v>53.8996134194211</v>
+        <v>37.0288898893991</v>
       </c>
       <c r="H12">
-        <v>13.45458763989105</v>
+        <v>14.87190839855944</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>32.13050071914802</v>
+        <v>18.35042018614659</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>9.188273364960747</v>
+        <v>16.2421650966214</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>9.655138746232376</v>
+        <v>5.730711041176981</v>
       </c>
       <c r="D13">
-        <v>1.836123024101259</v>
+        <v>4.28817429636613</v>
       </c>
       <c r="E13">
-        <v>40.82866031412941</v>
+        <v>21.03823513896629</v>
       </c>
       <c r="F13">
-        <v>35.68358918158219</v>
+        <v>28.11304610901524</v>
       </c>
       <c r="G13">
-        <v>53.72693974234164</v>
+        <v>36.98772029024003</v>
       </c>
       <c r="H13">
-        <v>13.42432264331754</v>
+        <v>14.86989475984153</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>32.03762993064301</v>
+        <v>18.31420053135857</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>9.207454804815866</v>
+        <v>16.24625994144792</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,22 +988,22 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>9.560112201913059</v>
+        <v>5.696851886115235</v>
       </c>
       <c r="D14">
-        <v>1.864242410084702</v>
+        <v>4.293191069384052</v>
       </c>
       <c r="E14">
-        <v>40.38592994862029</v>
+        <v>20.8531761225618</v>
       </c>
       <c r="F14">
-        <v>35.31427199318914</v>
+        <v>28.04650234602771</v>
       </c>
       <c r="G14">
-        <v>53.16367714454021</v>
+        <v>36.85357313890292</v>
       </c>
       <c r="H14">
-        <v>13.32601656678846</v>
+        <v>14.86344530274763</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>31.73372822240819</v>
+        <v>18.19564906085347</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>9.269929685655857</v>
+        <v>16.2596617678343</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,22 +1035,22 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>9.501669696764701</v>
+        <v>5.676040822143462</v>
       </c>
       <c r="D15">
-        <v>1.881392652800696</v>
+        <v>4.296274335797457</v>
       </c>
       <c r="E15">
-        <v>40.11434055122925</v>
+        <v>20.73904705934887</v>
       </c>
       <c r="F15">
-        <v>35.0878508712173</v>
+        <v>28.00588559638099</v>
       </c>
       <c r="G15">
-        <v>52.8185365673966</v>
+        <v>36.7714969300639</v>
       </c>
       <c r="H15">
-        <v>13.26610054008076</v>
+        <v>14.85958508737514</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>31.546779564031</v>
+        <v>18.12270352473643</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>9.308139195422765</v>
+        <v>16.26790742207084</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,22 +1082,22 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>9.163034759699968</v>
+        <v>5.555719984817951</v>
       </c>
       <c r="D16">
-        <v>1.978642995121796</v>
+        <v>4.314102652705289</v>
       </c>
       <c r="E16">
-        <v>38.55069818164505</v>
+        <v>20.07311259758604</v>
       </c>
       <c r="F16">
-        <v>33.78669727123759</v>
+        <v>27.77538604598504</v>
       </c>
       <c r="G16">
-        <v>50.83792620248059</v>
+        <v>36.30273022601885</v>
       </c>
       <c r="H16">
-        <v>12.92718123254607</v>
+        <v>14.83884738732474</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>30.46284515053086</v>
+        <v>17.69972383001114</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>9.52634115547054</v>
+        <v>16.31572312581245</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,22 +1129,22 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>8.951858890082342</v>
+        <v>5.480997293100894</v>
       </c>
       <c r="D17">
-        <v>2.037484628635268</v>
+        <v>4.325182770446168</v>
       </c>
       <c r="E17">
-        <v>37.58387029096514</v>
+        <v>19.65392899078725</v>
       </c>
       <c r="F17">
-        <v>32.98475029419804</v>
+        <v>27.636065707013</v>
       </c>
       <c r="G17">
-        <v>49.61962840881053</v>
+        <v>36.01673760126592</v>
       </c>
       <c r="H17">
-        <v>12.72307414503065</v>
+        <v>14.82736000850906</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>29.78628360671063</v>
+        <v>17.43591775493421</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>9.659655549451262</v>
+        <v>16.34556065902135</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,22 +1176,22 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>8.829092312919473</v>
+        <v>5.437699797381657</v>
       </c>
       <c r="D18">
-        <v>2.071065992011954</v>
+        <v>4.331608645910558</v>
       </c>
       <c r="E18">
-        <v>37.02458476761024</v>
+        <v>19.40889846068353</v>
       </c>
       <c r="F18">
-        <v>32.52194395814816</v>
+        <v>27.55672484446622</v>
       </c>
       <c r="G18">
-        <v>48.91741337916918</v>
+        <v>35.85289167066279</v>
       </c>
       <c r="H18">
-        <v>12.60702421649838</v>
+        <v>14.82120630075453</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>29.39274717126407</v>
+        <v>17.28263826344462</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>9.736184185715954</v>
+        <v>16.36290832748139</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,22 +1223,22 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>8.787297965360214</v>
+        <v>5.422986744408851</v>
       </c>
       <c r="D19">
-        <v>2.082394328154936</v>
+        <v>4.333793450623699</v>
       </c>
       <c r="E19">
-        <v>36.83463621455251</v>
+        <v>19.32525971580651</v>
       </c>
       <c r="F19">
-        <v>32.36496495551376</v>
+        <v>27.53000001454659</v>
       </c>
       <c r="G19">
-        <v>48.67937677298012</v>
+        <v>35.79753434938188</v>
       </c>
       <c r="H19">
-        <v>12.56795859961217</v>
+        <v>14.8192006296449</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>29.25873560885895</v>
+        <v>17.23047937190302</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>9.762074164565888</v>
+        <v>16.36881394030243</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,22 +1270,22 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>8.974472954118594</v>
+        <v>5.488985021670985</v>
       </c>
       <c r="D20">
-        <v>2.031248853596463</v>
+        <v>4.323997806928531</v>
       </c>
       <c r="E20">
-        <v>37.68711241613175</v>
+        <v>19.69895798681445</v>
       </c>
       <c r="F20">
-        <v>33.07027543689613</v>
+        <v>27.65081517141625</v>
       </c>
       <c r="G20">
-        <v>49.74946580378974</v>
+        <v>36.0471163422133</v>
       </c>
       <c r="H20">
-        <v>12.74466118324008</v>
+        <v>14.82853591575612</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>29.85875686345891</v>
+        <v>17.4641612941865</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>9.645480644327394</v>
+        <v>16.34236517621491</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,22 +1317,22 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>9.588072719141337</v>
+        <v>5.706812086845672</v>
       </c>
       <c r="D21">
-        <v>1.855998666980149</v>
+        <v>4.291715366813571</v>
       </c>
       <c r="E21">
-        <v>40.51605214854584</v>
+        <v>20.90769390094317</v>
       </c>
       <c r="F21">
-        <v>35.42279057291478</v>
+        <v>28.06601816631945</v>
       </c>
       <c r="G21">
-        <v>53.32914519778544</v>
+        <v>36.89295644335663</v>
       </c>
       <c r="H21">
-        <v>13.35482868660153</v>
+        <v>14.86532085451644</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>31.82315740493171</v>
+        <v>18.2305393425721</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>9.251591741188301</v>
+        <v>16.25571769252829</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,22 +1364,22 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>9.978417748936495</v>
+        <v>5.846021169102611</v>
       </c>
       <c r="D22">
-        <v>1.738269397314102</v>
+        <v>4.271080955644329</v>
       </c>
       <c r="E22">
-        <v>42.34571118656809</v>
+        <v>21.66295070851986</v>
       </c>
       <c r="F22">
-        <v>36.9506763603625</v>
+        <v>28.34386045815825</v>
       </c>
       <c r="G22">
-        <v>55.66222065663467</v>
+        <v>37.45009913619729</v>
       </c>
       <c r="H22">
-        <v>13.84881534569718</v>
+        <v>14.89340167582091</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>33.07083154416338</v>
+        <v>18.71678290574766</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>8.991698168411125</v>
+        <v>16.20073056641998</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,22 +1411,22 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>9.771011110048919</v>
+        <v>5.772025299276865</v>
       </c>
       <c r="D23">
-        <v>1.801441241591455</v>
+        <v>4.282051805642975</v>
       </c>
       <c r="E23">
-        <v>41.37044673073578</v>
+        <v>21.26302096500816</v>
       </c>
       <c r="F23">
-        <v>36.13585798511791</v>
+        <v>28.1950057818731</v>
       </c>
       <c r="G23">
-        <v>54.41721909460715</v>
+        <v>37.15241370380666</v>
       </c>
       <c r="H23">
-        <v>13.54566446370781</v>
+        <v>14.87804490346018</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>32.40807607675058</v>
+        <v>18.45864257105117</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>9.13069353023961</v>
+        <v>16.22992863630553</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,22 +1458,22 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>8.964253377759293</v>
+        <v>5.485374820085267</v>
       </c>
       <c r="D24">
-        <v>2.034068809483048</v>
+        <v>4.324533355153623</v>
       </c>
       <c r="E24">
-        <v>37.6404474705278</v>
+        <v>19.6786129526246</v>
       </c>
       <c r="F24">
-        <v>33.03161503184103</v>
+        <v>27.64414457667284</v>
       </c>
       <c r="G24">
-        <v>49.69077198911763</v>
+        <v>36.03338030612592</v>
       </c>
       <c r="H24">
-        <v>12.73489766527557</v>
+        <v>14.82800288479669</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>29.82600597637737</v>
+        <v>17.45139740679242</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>9.651889467238291</v>
+        <v>16.34380925059348</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,22 +1505,22 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>8.043791275725692</v>
+        <v>5.164220994474449</v>
       </c>
       <c r="D25">
-        <v>2.275288328117544</v>
+        <v>4.372382661170157</v>
       </c>
       <c r="E25">
-        <v>33.49159325745214</v>
+        <v>17.81927425216374</v>
       </c>
       <c r="F25">
-        <v>29.8793963244477</v>
+        <v>27.0805614134352</v>
       </c>
       <c r="G25">
-        <v>44.57651551048441</v>
+        <v>34.85203856617607</v>
       </c>
       <c r="H25">
-        <v>11.91155107232383</v>
+        <v>14.79135361952661</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>26.87155059888724</v>
+        <v>16.30655152107677</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>10.20879946698489</v>
+        <v>16.47376402841673</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_196/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_196/res_line/loading_percent.xlsx
@@ -424,22 +424,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.919465525594682</v>
+        <v>7.318591409920158</v>
       </c>
       <c r="D2">
-        <v>4.409400734803915</v>
+        <v>2.448238721165673</v>
       </c>
       <c r="E2">
-        <v>16.4951395720656</v>
+        <v>30.29020327041157</v>
       </c>
       <c r="F2">
-        <v>26.6947121690564</v>
+        <v>27.63206381771208</v>
       </c>
       <c r="G2">
-        <v>34.01207126782955</v>
+        <v>40.85162040800135</v>
       </c>
       <c r="H2">
-        <v>14.77919364037958</v>
+        <v>11.34490477297755</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>15.41918535586897</v>
+        <v>24.53740622377104</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>16.57566166230366</v>
+        <v>10.61928806752271</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,22 +471,22 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.749625503947096</v>
+        <v>6.795693050082605</v>
       </c>
       <c r="D3">
-        <v>4.435624843057894</v>
+        <v>2.564037071411083</v>
       </c>
       <c r="E3">
-        <v>15.55565519777343</v>
+        <v>28.01370254413974</v>
       </c>
       <c r="F3">
-        <v>26.45266724202762</v>
+        <v>26.10439670440633</v>
       </c>
       <c r="G3">
-        <v>33.46534592053941</v>
+        <v>38.29611541253071</v>
       </c>
       <c r="H3">
-        <v>14.78013410565199</v>
+        <v>10.98415313549271</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>14.79378306681102</v>
+        <v>22.85103300423946</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>16.64864034559091</v>
+        <v>10.89981842986057</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,22 +518,22 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>4.643851622340542</v>
+        <v>6.458599745163456</v>
       </c>
       <c r="D4">
-        <v>4.452294301199195</v>
+        <v>2.634858359023936</v>
       </c>
       <c r="E4">
-        <v>14.95454649616157</v>
+        <v>26.55890043958861</v>
       </c>
       <c r="F4">
-        <v>26.31402890675283</v>
+        <v>25.16522976649528</v>
       </c>
       <c r="G4">
-        <v>33.14204103004788</v>
+        <v>36.71271334674812</v>
       </c>
       <c r="H4">
-        <v>14.78521115709388</v>
+        <v>10.77379165212445</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>14.39942447985864</v>
+        <v>21.76250733968904</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>16.69539907217806</v>
+        <v>11.07380755124785</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,22 +565,22 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>4.600449782367975</v>
+        <v>6.317127719862425</v>
       </c>
       <c r="D5">
-        <v>4.459230989532921</v>
+        <v>2.663703386037051</v>
       </c>
       <c r="E5">
-        <v>14.70375955856703</v>
+        <v>25.95114944237239</v>
       </c>
       <c r="F5">
-        <v>26.26009492591661</v>
+        <v>24.78250462256455</v>
       </c>
       <c r="G5">
-        <v>33.01359274275764</v>
+        <v>36.06424139851557</v>
       </c>
       <c r="H5">
-        <v>14.78840669533324</v>
+        <v>10.69082724791483</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>14.23637088457637</v>
+        <v>21.30537301785317</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>16.71494594496888</v>
+        <v>11.14522631548927</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,22 +612,22 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4.593227297196554</v>
+        <v>6.293386509938963</v>
       </c>
       <c r="D6">
-        <v>4.460391532135322</v>
+        <v>2.66849366652745</v>
       </c>
       <c r="E6">
-        <v>14.6617734021746</v>
+        <v>25.84931687038028</v>
       </c>
       <c r="F6">
-        <v>26.2512954107495</v>
+        <v>24.71896337148391</v>
       </c>
       <c r="G6">
-        <v>32.99246863778009</v>
+        <v>35.95638328109806</v>
       </c>
       <c r="H6">
-        <v>14.78900519815208</v>
+        <v>10.67721652873895</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>14.20916210841163</v>
+        <v>21.2286422254968</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>16.71822148411764</v>
+        <v>11.15711873241263</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>4.643267391014173</v>
+        <v>6.456708512497541</v>
       </c>
       <c r="D7">
-        <v>4.452387268532384</v>
+        <v>2.635247366030772</v>
       </c>
       <c r="E7">
-        <v>14.95118750546409</v>
+        <v>26.5507651696323</v>
       </c>
       <c r="F7">
-        <v>26.31329109450434</v>
+        <v>25.16006777419982</v>
       </c>
       <c r="G7">
-        <v>33.14029512665609</v>
+        <v>36.70398023533632</v>
       </c>
       <c r="H7">
-        <v>14.78524969885075</v>
+        <v>10.77266164632535</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>14.39723463514613</v>
+        <v>21.75639738794695</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>16.6956606920917</v>
+        <v>11.07476853810917</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>4.861258513574546</v>
+        <v>7.141578191239605</v>
       </c>
       <c r="D8">
-        <v>4.418325566711061</v>
+        <v>2.48825891282508</v>
       </c>
       <c r="E8">
-        <v>16.17638735136423</v>
+        <v>29.51674024511964</v>
       </c>
       <c r="F8">
-        <v>26.60921793352317</v>
+        <v>27.10570753510756</v>
       </c>
       <c r="G8">
-        <v>33.82110406046517</v>
+        <v>39.97361629818667</v>
       </c>
       <c r="H8">
-        <v>14.77858133007537</v>
+        <v>11.21817890875683</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>15.20584113224446</v>
+        <v>23.96683403257428</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>16.60042135100358</v>
+        <v>10.7157028921789</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,22 +753,22 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>5.273835501643875</v>
+        <v>8.360962534732689</v>
       </c>
       <c r="D9">
-        <v>4.355989912697232</v>
+        <v>2.194978423807346</v>
       </c>
       <c r="E9">
-        <v>18.46581625186574</v>
+        <v>34.90961568133535</v>
       </c>
       <c r="F9">
-        <v>27.26606377911448</v>
+        <v>30.90504817901917</v>
       </c>
       <c r="G9">
-        <v>35.24586130336765</v>
+        <v>46.28148214664005</v>
       </c>
       <c r="H9">
-        <v>14.80138925311246</v>
+        <v>12.18251277045018</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>16.6995262267186</v>
+        <v>27.89063057182558</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>16.42902964644935</v>
+        <v>10.02143773961415</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,22 +800,22 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>5.564202007861616</v>
+        <v>9.186957681401999</v>
       </c>
       <c r="D10">
-        <v>4.312845476745442</v>
+        <v>1.971890467815631</v>
       </c>
       <c r="E10">
-        <v>20.12041306727535</v>
+        <v>38.66061593475531</v>
       </c>
       <c r="F10">
-        <v>27.79138892426623</v>
+        <v>33.8780074501046</v>
       </c>
       <c r="G10">
-        <v>36.33544699304316</v>
+        <v>50.97676123624952</v>
       </c>
       <c r="H10">
-        <v>14.84021964656524</v>
+        <v>12.95065743519611</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>17.72961336871365</v>
+        <v>30.53945917385963</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>16.31234360073391</v>
+        <v>9.511105145046887</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,22 +847,22 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>5.692876379534704</v>
+        <v>9.548950295931304</v>
       </c>
       <c r="D11">
-        <v>4.293780069879173</v>
+        <v>1.86752634794334</v>
       </c>
       <c r="E11">
-        <v>20.83139714743529</v>
+        <v>40.3340186496485</v>
       </c>
       <c r="F11">
-        <v>28.03872663214829</v>
+        <v>35.27098586580853</v>
       </c>
       <c r="G11">
-        <v>36.83787202225562</v>
+        <v>53.09768389016051</v>
       </c>
       <c r="H11">
-        <v>14.86270175730886</v>
+        <v>13.31454117037973</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>18.18171910370141</v>
+        <v>31.69802566767794</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>16.26123641431803</v>
+        <v>9.277239851739346</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,22 +894,22 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>5.741064629336696</v>
+        <v>9.68418401482502</v>
       </c>
       <c r="D12">
-        <v>4.286640105443743</v>
+        <v>1.827470262901546</v>
       </c>
       <c r="E12">
-        <v>21.09467149190681</v>
+        <v>40.96426612589303</v>
       </c>
       <c r="F12">
-        <v>28.13350722493543</v>
+        <v>35.79675832409237</v>
       </c>
       <c r="G12">
-        <v>37.0288898893991</v>
+        <v>53.89961341942116</v>
       </c>
       <c r="H12">
-        <v>14.87190839855944</v>
+        <v>13.45458763989106</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>18.35042018614659</v>
+        <v>32.13050071914802</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>16.2421650966214</v>
+        <v>9.188273364960741</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>5.730711041176981</v>
+        <v>9.655138746232376</v>
       </c>
       <c r="D13">
-        <v>4.28817429636613</v>
+        <v>1.836123024101263</v>
       </c>
       <c r="E13">
-        <v>21.03823513896629</v>
+        <v>40.82866031412946</v>
       </c>
       <c r="F13">
-        <v>28.11304610901524</v>
+        <v>35.68358918158226</v>
       </c>
       <c r="G13">
-        <v>36.98772029024003</v>
+        <v>53.72693974234181</v>
       </c>
       <c r="H13">
-        <v>14.86989475984153</v>
+        <v>13.42432264331754</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>18.31420053135857</v>
+        <v>32.03762993064308</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>16.24625994144792</v>
+        <v>9.207454804815862</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,22 +988,22 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>5.696851886115235</v>
+        <v>9.560112201912904</v>
       </c>
       <c r="D14">
-        <v>4.293191069384052</v>
+        <v>1.864242410084702</v>
       </c>
       <c r="E14">
-        <v>20.8531761225618</v>
+        <v>40.3859299486204</v>
       </c>
       <c r="F14">
-        <v>28.04650234602771</v>
+        <v>35.31427199318919</v>
       </c>
       <c r="G14">
-        <v>36.85357313890292</v>
+        <v>53.16367714454032</v>
       </c>
       <c r="H14">
-        <v>14.86344530274763</v>
+        <v>13.32601656678846</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>18.19564906085347</v>
+        <v>31.73372822240826</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>16.2596617678343</v>
+        <v>9.269929685655855</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,22 +1035,22 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>5.676040822143462</v>
+        <v>9.501669696764804</v>
       </c>
       <c r="D15">
-        <v>4.296274335797457</v>
+        <v>1.881392652800763</v>
       </c>
       <c r="E15">
-        <v>20.73904705934887</v>
+        <v>40.11434055122919</v>
       </c>
       <c r="F15">
-        <v>28.00588559638099</v>
+        <v>35.08785087121723</v>
       </c>
       <c r="G15">
-        <v>36.7714969300639</v>
+        <v>52.81853656739646</v>
       </c>
       <c r="H15">
-        <v>14.85958508737514</v>
+        <v>13.26610054008074</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>18.12270352473643</v>
+        <v>31.54677956403097</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>16.26790742207084</v>
+        <v>9.308139195422834</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,22 +1082,22 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>5.555719984817951</v>
+        <v>9.163034759699888</v>
       </c>
       <c r="D16">
-        <v>4.314102652705289</v>
+        <v>1.978642995121796</v>
       </c>
       <c r="E16">
-        <v>20.07311259758604</v>
+        <v>38.55069818164499</v>
       </c>
       <c r="F16">
-        <v>27.77538604598504</v>
+        <v>33.78669727123757</v>
       </c>
       <c r="G16">
-        <v>36.30273022601885</v>
+        <v>50.83792620248051</v>
       </c>
       <c r="H16">
-        <v>14.83884738732474</v>
+        <v>12.92718123254605</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>17.69972383001114</v>
+        <v>30.46284515053082</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>16.31572312581245</v>
+        <v>9.526341155470545</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,22 +1129,22 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>5.480997293100894</v>
+        <v>8.951858890082326</v>
       </c>
       <c r="D17">
-        <v>4.325182770446168</v>
+        <v>2.037484628635335</v>
       </c>
       <c r="E17">
-        <v>19.65392899078725</v>
+        <v>37.58387029096509</v>
       </c>
       <c r="F17">
-        <v>27.636065707013</v>
+        <v>32.98475029419801</v>
       </c>
       <c r="G17">
-        <v>36.01673760126592</v>
+        <v>49.61962840881046</v>
       </c>
       <c r="H17">
-        <v>14.82736000850906</v>
+        <v>12.72307414503065</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>17.43591775493421</v>
+        <v>29.78628360671058</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>16.34556065902135</v>
+        <v>9.659655549451262</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,22 +1176,22 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>5.437699797381657</v>
+        <v>8.82909231291943</v>
       </c>
       <c r="D18">
-        <v>4.331608645910558</v>
+        <v>2.071065992011889</v>
       </c>
       <c r="E18">
-        <v>19.40889846068353</v>
+        <v>37.02458476761017</v>
       </c>
       <c r="F18">
-        <v>27.55672484446622</v>
+        <v>32.52194395814812</v>
       </c>
       <c r="G18">
-        <v>35.85289167066279</v>
+        <v>48.91741337916909</v>
       </c>
       <c r="H18">
-        <v>14.82120630075453</v>
+        <v>12.60702421649839</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>17.28263826344462</v>
+        <v>29.39274717126403</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>16.36290832748139</v>
+        <v>9.736184185715956</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,22 +1223,22 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>5.422986744408851</v>
+        <v>8.787297965360247</v>
       </c>
       <c r="D19">
-        <v>4.333793450623699</v>
+        <v>2.082394328154736</v>
       </c>
       <c r="E19">
-        <v>19.32525971580651</v>
+        <v>36.83463621455266</v>
       </c>
       <c r="F19">
-        <v>27.53000001454659</v>
+        <v>32.36496495551381</v>
       </c>
       <c r="G19">
-        <v>35.79753434938188</v>
+        <v>48.67937677298021</v>
       </c>
       <c r="H19">
-        <v>14.8192006296449</v>
+        <v>12.56795859961214</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>17.23047937190302</v>
+        <v>29.25873560885901</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>16.36881394030243</v>
+        <v>9.762074164565856</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,22 +1270,22 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>5.488985021670985</v>
+        <v>8.974472954118578</v>
       </c>
       <c r="D20">
-        <v>4.323997806928531</v>
+        <v>2.031248853596394</v>
       </c>
       <c r="E20">
-        <v>19.69895798681445</v>
+        <v>37.68711241613181</v>
       </c>
       <c r="F20">
-        <v>27.65081517141625</v>
+        <v>33.07027543689613</v>
       </c>
       <c r="G20">
-        <v>36.0471163422133</v>
+        <v>49.74946580378975</v>
       </c>
       <c r="H20">
-        <v>14.82853591575612</v>
+        <v>12.74466118324008</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>17.4641612941865</v>
+        <v>29.85875686345894</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>16.34236517621491</v>
+        <v>9.64548064432743</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,22 +1317,22 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>5.706812086845672</v>
+        <v>9.588072719141302</v>
       </c>
       <c r="D21">
-        <v>4.291715366813571</v>
+        <v>1.855998666980084</v>
       </c>
       <c r="E21">
-        <v>20.90769390094317</v>
+        <v>40.51605214854573</v>
       </c>
       <c r="F21">
-        <v>28.06601816631945</v>
+        <v>35.42279057291471</v>
       </c>
       <c r="G21">
-        <v>36.89295644335663</v>
+        <v>53.32914519778528</v>
       </c>
       <c r="H21">
-        <v>14.86532085451644</v>
+        <v>13.35482868660153</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>18.2305393425721</v>
+        <v>31.82315740493165</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>16.25571769252829</v>
+        <v>9.251591741188339</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,22 +1364,22 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>5.846021169102611</v>
+        <v>9.978417748936488</v>
       </c>
       <c r="D22">
-        <v>4.271080955644329</v>
+        <v>1.738269397314235</v>
       </c>
       <c r="E22">
-        <v>21.66295070851986</v>
+        <v>42.34571118656812</v>
       </c>
       <c r="F22">
-        <v>28.34386045815825</v>
+        <v>36.95067636036266</v>
       </c>
       <c r="G22">
-        <v>37.45009913619729</v>
+        <v>55.66222065663494</v>
       </c>
       <c r="H22">
-        <v>14.89340167582091</v>
+        <v>13.84881534569721</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>18.71678290574766</v>
+        <v>33.07083154416354</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>16.20073056641998</v>
+        <v>8.991698168411059</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,22 +1411,22 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>5.772025299276865</v>
+        <v>9.771011110048905</v>
       </c>
       <c r="D23">
-        <v>4.282051805642975</v>
+        <v>1.801441241591457</v>
       </c>
       <c r="E23">
-        <v>21.26302096500816</v>
+        <v>41.37044673073574</v>
       </c>
       <c r="F23">
-        <v>28.1950057818731</v>
+        <v>36.13585798511782</v>
       </c>
       <c r="G23">
-        <v>37.15241370380666</v>
+        <v>54.41721909460702</v>
       </c>
       <c r="H23">
-        <v>14.87804490346018</v>
+        <v>13.54566446370779</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>18.45864257105117</v>
+        <v>32.40807607675057</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>16.22992863630553</v>
+        <v>9.130693530239649</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,22 +1458,22 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>5.485374820085267</v>
+        <v>8.964253377759261</v>
       </c>
       <c r="D24">
-        <v>4.324533355153623</v>
+        <v>2.034068809483047</v>
       </c>
       <c r="E24">
-        <v>19.6786129526246</v>
+        <v>37.64044747052774</v>
       </c>
       <c r="F24">
-        <v>27.64414457667284</v>
+        <v>33.03161503184108</v>
       </c>
       <c r="G24">
-        <v>36.03338030612592</v>
+        <v>49.69077198911773</v>
       </c>
       <c r="H24">
-        <v>14.82800288479669</v>
+        <v>12.73489766527554</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>17.45139740679242</v>
+        <v>29.8260059763774</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>16.34380925059348</v>
+        <v>9.65188946723819</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,22 +1505,22 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>5.164220994474449</v>
+        <v>8.043791275725809</v>
       </c>
       <c r="D25">
-        <v>4.372382661170157</v>
+        <v>2.275288328117408</v>
       </c>
       <c r="E25">
-        <v>17.81927425216374</v>
+        <v>33.49159325745219</v>
       </c>
       <c r="F25">
-        <v>27.0805614134352</v>
+        <v>29.87939632444772</v>
       </c>
       <c r="G25">
-        <v>34.85203856617607</v>
+        <v>44.57651551048447</v>
       </c>
       <c r="H25">
-        <v>14.79135361952661</v>
+        <v>11.91155107232383</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>16.30655152107677</v>
+        <v>26.8715505988873</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>16.47376402841673</v>
+        <v>10.20879946698485</v>
       </c>
       <c r="O25">
         <v>0</v>
